--- a/Concepts_LP.xlsx
+++ b/Concepts_LP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Python</t>
   </si>
@@ -43,9 +43,6 @@
     <t>File handling</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>file name</t>
   </si>
   <si>
@@ -56,6 +53,21 @@
   </si>
   <si>
     <t>Decorator/Generator</t>
+  </si>
+  <si>
+    <t>collections.py</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Total Days</t>
+  </si>
+  <si>
+    <t>datatypes.py</t>
   </si>
 </sst>
 </file>
@@ -120,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,20 +442,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,102 +465,175 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45649</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45651</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="4">
+        <v>45652</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45652</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45653</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45653</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4">
+        <v>45654</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45656</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45658</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4">
+        <v>45659</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45661</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4">
+        <v>45662</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45665</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4">
+        <v>45666</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45666</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4">
+        <v>45667</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45667</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C11" s="4">
+        <v>45668</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45669</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E11">
+    <sortCondition ref="C2:C11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Concepts_LP.xlsx
+++ b/Concepts_LP.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Python</t>
   </si>
   <si>
-    <t>Variables</t>
-  </si>
-  <si>
     <t>Data Types</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>file name</t>
-  </si>
-  <si>
-    <t>variables.py</t>
   </si>
   <si>
     <t>Collection Module</t>
@@ -442,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,24 +456,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="4">
         <v>45649</v>
@@ -496,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
         <v>45652</v>
@@ -512,17 +506,15 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="4">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="D4" s="4">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -531,13 +523,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4">
-        <v>45654</v>
+        <v>45657</v>
       </c>
       <c r="D5" s="4">
-        <v>45656</v>
+        <v>45658</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -546,13 +538,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4">
-        <v>45657</v>
+        <v>45659</v>
       </c>
       <c r="D6" s="4">
-        <v>45658</v>
+        <v>45661</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,13 +553,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4">
-        <v>45659</v>
+        <v>45662</v>
       </c>
       <c r="D7" s="4">
-        <v>45661</v>
+        <v>45665</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -576,13 +568,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4">
-        <v>45662</v>
+        <v>45666</v>
       </c>
       <c r="D8" s="4">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,10 +583,10 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4">
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="D9" s="4">
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -602,31 +594,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="4">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="D10" s="4">
-        <v>45667</v>
+        <v>45669</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4">
-        <v>45668</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45669</v>
-      </c>
-      <c r="E11" s="2">
         <v>2</v>
       </c>
     </row>

--- a/Concepts_LP.xlsx
+++ b/Concepts_LP.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Python</t>
   </si>
   <si>
-    <t>Data Types</t>
-  </si>
-  <si>
     <t>Control Structures</t>
   </si>
   <si>
@@ -62,6 +59,12 @@
   </si>
   <si>
     <t>datatypes.py</t>
+  </si>
+  <si>
+    <t>Variables and data types</t>
+  </si>
+  <si>
+    <t>controlstructures.py</t>
   </si>
 </sst>
 </file>
@@ -439,13 +442,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -456,24 +459,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>45649</v>
@@ -487,54 +490,56 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <v>45652</v>
       </c>
       <c r="D3" s="4">
-        <v>45652</v>
+        <v>45656</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="4">
-        <v>45654</v>
+        <v>45657</v>
       </c>
       <c r="D4" s="4">
-        <v>45656</v>
+        <v>45657</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4">
-        <v>45657</v>
+        <v>45658</v>
       </c>
       <c r="D5" s="4">
         <v>45658</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4">
@@ -549,7 +554,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4">
@@ -564,7 +569,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4">
@@ -579,7 +584,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4">
@@ -594,7 +599,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="4">

--- a/Concepts_LP.xlsx
+++ b/Concepts_LP.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Python</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Control Structures</t>
   </si>
@@ -31,21 +28,12 @@
     <t>OOPS</t>
   </si>
   <si>
-    <t>Exception handling</t>
-  </si>
-  <si>
-    <t>File handling</t>
-  </si>
-  <si>
     <t>file name</t>
   </si>
   <si>
     <t>Collection Module</t>
   </si>
   <si>
-    <t>Decorator/Generator</t>
-  </si>
-  <si>
     <t>collections.py</t>
   </si>
   <si>
@@ -65,6 +53,33 @@
   </si>
   <si>
     <t>controlstructures.py</t>
+  </si>
+  <si>
+    <t>File and Exception handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class_and_methods </t>
+  </si>
+  <si>
+    <t>functions.py</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>namedtuple , default dict , counter , dequeu, chained map etc…</t>
+  </si>
+  <si>
+    <t>string , int , float , dict, tuple , set , list, array…</t>
+  </si>
+  <si>
+    <t>if , else , elif , try, except , with, pass , break , continue…</t>
+  </si>
+  <si>
+    <t>map , lambda , filter, decorator , generator, *args, **kwargs…</t>
+  </si>
+  <si>
+    <t>Python-Concepts</t>
   </si>
 </sst>
 </file>
@@ -439,44 +454,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>45649</v>
@@ -487,13 +506,16 @@
       <c r="E2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>45652</v>
@@ -504,13 +526,16 @@
       <c r="E3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>45657</v>
@@ -521,12 +546,17 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="4">
         <v>45658</v>
       </c>
@@ -536,8 +566,11 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -546,71 +579,60 @@
         <v>45659</v>
       </c>
       <c r="D6" s="4">
-        <v>45661</v>
+        <v>45660</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4">
+        <v>45661</v>
+      </c>
+      <c r="D7" s="4">
         <v>45662</v>
       </c>
-      <c r="D7" s="4">
-        <v>45665</v>
-      </c>
       <c r="E7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4">
-        <v>45666</v>
+        <v>45663</v>
       </c>
       <c r="D8" s="4">
-        <v>45666</v>
+        <v>45664</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4">
-        <v>45667</v>
+        <v>45665</v>
       </c>
       <c r="D9" s="4">
-        <v>45667</v>
+        <v>45666</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4">
-        <v>45668</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45669</v>
-      </c>
-      <c r="E10" s="2">
         <v>2</v>
       </c>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:E11">

--- a/Concepts_LP.xlsx
+++ b/Concepts_LP.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Concepts_LP" sheetId="1" r:id="rId1"/>
+    <sheet name="DSA_LP" sheetId="2" r:id="rId1"/>
+    <sheet name="Concepts_LP" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Control Structures</t>
   </si>
@@ -58,9 +59,6 @@
     <t>File and Exception handling</t>
   </si>
   <si>
-    <t xml:space="preserve">Class_and_methods </t>
-  </si>
-  <si>
     <t>functions.py</t>
   </si>
   <si>
@@ -80,6 +78,81 @@
   </si>
   <si>
     <t>Python-Concepts</t>
+  </si>
+  <si>
+    <t>Oops.py</t>
+  </si>
+  <si>
+    <t>modules.py</t>
+  </si>
+  <si>
+    <t>JDBC snd ODBC</t>
+  </si>
+  <si>
+    <t>Pyspark + Glue AWS</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>SQL concept</t>
+  </si>
+  <si>
+    <t>Hive concept</t>
+  </si>
+  <si>
+    <t>Snowflake Concept</t>
+  </si>
+  <si>
+    <t>abstraction , encapuslation, inheritance and polymorphism</t>
+  </si>
+  <si>
+    <t>sys, os, subprocess, time, datetime, re, pandas , numpy, scipy</t>
+  </si>
+  <si>
+    <t>open , close, read , write, se and de serialize, exceptions, csv , json</t>
+  </si>
+  <si>
+    <t>establish connections and query data</t>
+  </si>
+  <si>
+    <t>glue_spark_theory</t>
+  </si>
+  <si>
+    <t>Glue + Spark Theory</t>
+  </si>
+  <si>
+    <t>Project on glue spark</t>
+  </si>
+  <si>
+    <t>glue_spark_project1</t>
+  </si>
+  <si>
+    <t>window functions</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum, itertools, </t>
+  </si>
+  <si>
+    <t>EMR + Spark Theory</t>
+  </si>
+  <si>
+    <t>Project on EMR</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -103,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,12 +223,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,43 +540,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52" customWidth="1"/>
+    <col min="6" max="6" width="58.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -507,10 +644,22 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -527,10 +676,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,15 +702,21 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>45658</v>
@@ -567,14 +728,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="4">
         <v>45659</v>
       </c>
@@ -584,55 +753,329 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="4">
-        <v>45661</v>
+        <v>45690</v>
       </c>
       <c r="D7" s="4">
-        <v>45662</v>
+        <v>45690</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4">
-        <v>45663</v>
+        <v>45691</v>
       </c>
       <c r="D8" s="4">
-        <v>45664</v>
+        <v>45693</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4">
-        <v>45665</v>
+        <v>45694</v>
       </c>
       <c r="D9" s="4">
-        <v>45666</v>
+        <v>45697</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="2">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="2">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H15" s="2">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="2">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="2">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="2">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="2">
+        <v>21</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="2">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="2">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="2">
+        <v>24</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:E11">
